--- a/testcases/test-data/spreadsheet/52348.xlsx
+++ b/testcases/test-data/spreadsheet/52348.xlsx
@@ -647,7 +647,7 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" ht="80">
-      <c r="A1" s="1" t="inlineStr"/>
+      <c r="A1" s="0" t="inlineStr"/>
       <c r="B1" s="1" t="inlineStr"/>
       <c r="C1" s="1" t="inlineStr"/>
       <c r="D1" s="1" t="inlineStr"/>
